--- a/excel/601 Imperativo.xlsx
+++ b/excel/601 Imperativo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0-Coding\spingMvc\quiz-mini-springboot\quiz-mini-springboot\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13620"/>
+    <workbookView windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +31,7 @@
     <t>例句</t>
   </si>
   <si>
-    <t>Imperativo</t>
+    <t>601 Imperativo</t>
   </si>
   <si>
     <t>essere</t>
@@ -118,345 +113,268 @@
   </si>
   <si>
     <t>avere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>abbi</t>
   </si>
   <si>
     <t>abbia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>abbiamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>abbiate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>abbiano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>diamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>diano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sta'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stiamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>state</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stiano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>di'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dica</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>diciamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dicano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>venire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vieni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>venga</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>veniamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>venite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vengano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sapere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sappia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sappiamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sappiate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sappiano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>seguire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>segui</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>segua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>seguiamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>seguite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>seguano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mettere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>metti</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>metta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mettiamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mettete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mettano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>scrivere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>scrivi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sciva</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>scriviamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>scrivete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>scrivano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sedere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>siedi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sieda</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sediamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sedete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>siedano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scendere</t>
   </si>
   <si>
     <t>scendi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>scenda</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>scendiamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>scendete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>scendano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>scendere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tendere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tendi</t>
+  </si>
+  <si>
+    <t>tenda</t>
+  </si>
+  <si>
+    <t>tendiamo</t>
+  </si>
+  <si>
+    <t>tendete</t>
+  </si>
+  <si>
+    <t>tendano</t>
   </si>
   <si>
     <t>prendere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tendi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tenda</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tendiamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tendete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tendano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prendi</t>
+  </si>
+  <si>
+    <t>prenda</t>
+  </si>
+  <si>
+    <t>prendiamo</t>
+  </si>
+  <si>
+    <t>prendete</t>
+  </si>
+  <si>
+    <t>predano</t>
   </si>
   <si>
     <t>tenere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prendi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prenda</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prendiamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prendete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>predano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tieni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tenga</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>teniamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tenete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tengano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -478,7 +396,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -487,12 +406,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,8 +560,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -529,9 +770,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -548,24 +1031,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -823,28 +1350,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.55555555555556" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" customWidth="1"/>
+    <col min="5" max="5" width="53.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +1388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -878,7 +1405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -895,7 +1422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -912,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -929,7 +1456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -946,7 +1473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -963,7 +1490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -980,7 +1507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -997,7 +1524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +1575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1082,7 +1609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1099,7 +1626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1657,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1144,7 +1671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1741,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1228,7 +1755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1242,7 +1769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1797,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1811,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1298,7 +1825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1839,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1853,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1340,7 +1867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1881,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1368,7 +1895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1382,7 +1909,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1396,7 +1923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1410,7 +1937,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1424,7 +1951,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1452,7 +1979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1466,7 +1993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1480,7 +2007,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1494,7 +2021,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1508,7 +2035,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1522,7 +2049,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1536,7 +2063,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1550,7 +2077,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1564,7 +2091,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1578,7 +2105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1592,7 +2119,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +2133,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1620,7 +2147,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +2161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1648,7 +2175,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1662,7 +2189,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +2203,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +2217,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1704,7 +2231,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +2245,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +2259,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +2273,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +2287,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1774,7 +2301,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1788,7 +2315,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1802,7 +2329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1816,77 +2343,77 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1897,10 +2424,10 @@
         <v>7</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1911,10 +2438,10 @@
         <v>10</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1925,10 +2452,10 @@
         <v>12</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -1939,10 +2466,10 @@
         <v>14</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1953,85 +2480,85 @@
         <v>16</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>7</v>
@@ -2040,12 +2567,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>10</v>
@@ -2054,12 +2581,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>5</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -2068,12 +2595,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>14</v>
@@ -2082,12 +2609,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
@@ -2097,8 +2624,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>